--- a/data/PF004.xlsx
+++ b/data/PF004.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="380" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,22 +13,63 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>emailid</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>mmuthuraman.sundharam@saggezza.com</t>
-  </si>
-  <si>
-    <t>mutc1234</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempe, AZ, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfzd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567889</t>
   </si>
 </sst>
 </file>
@@ -36,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -212,17 +253,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,22 +277,58 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="muthuraman.sundharam@saggezza.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="zfzd@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -262,18 +343,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -288,18 +366,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
